--- a/TMRTeamProjectPython/init/seoul_local_people/upjong_code.xlsx
+++ b/TMRTeamProjectPython/init/seoul_local_people/upjong_code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\01 상권정보시스템\★2022년\04. 용역\2. 상권정보시스템_DB재설계_및_기능개선\3. 사업추진\1. DB재설계\업종분류체계\공지사항(안내용)\구분류_2302코드\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\TMRTeamProject\TMRTeamProjectPython\daejeon_upjong\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11477" uniqueCount="2894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11477" uniqueCount="2978">
   <si>
     <t>F12A10</t>
   </si>
@@ -8826,6 +8826,342 @@
   </si>
   <si>
     <t>통계청 제10차 표준산업분류(277개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부동산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학/기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보건의료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예체능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리/개인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식료품 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담배 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터사이클 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동차 부품 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가전제품/통신장비 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬유/의복/신발 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬유/의복/신발 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 생활용품 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설자재 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화/오락 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의약/화장품 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안경/정밀기기 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시계/귀금속 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장식품 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애완동물용품 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 상품 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중고 상품 소매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 숙박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 숙박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서양식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동남아시아식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 외국식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구내식당/뷔페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 간이 음식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 간이 음식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비알코올 음료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부동산 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법무 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회계/세무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장 조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영 컨설팅 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장례식 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세탁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕탕/신체관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용/미용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 개인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가정용품 수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가전제품 수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터사이클 수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동차 수리/세차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신장비 수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유원지/오락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서관/사적지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 보건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 교육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 교육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인/가정용품 대여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업용품 대여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운송장비 대여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운송장비 대여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행사/여행 보조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고용 알선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조경관리/유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소/방제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지/관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 전문 과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업시설/임대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9149,6 +9485,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9165,12 +9507,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10543,8 +10879,8 @@
   <dimension ref="A1:F249"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B147" sqref="B147:B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10561,14 +10897,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>2892</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -10595,13 +10931,13 @@
         <v>2346</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2347</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2213</v>
+        <v>2910</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -10615,13 +10951,13 @@
         <v>2346</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2347</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2213</v>
+        <v>2910</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -10635,13 +10971,13 @@
         <v>2346</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2362</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>2909</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>42</v>
@@ -10655,13 +10991,13 @@
         <v>2346</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2365</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2214</v>
+        <v>2903</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>73</v>
@@ -10675,13 +11011,13 @@
         <v>2346</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2365</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2214</v>
+        <v>2903</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>76</v>
@@ -10695,13 +11031,13 @@
         <v>2346</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2365</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2214</v>
+        <v>2903</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>81</v>
@@ -10715,13 +11051,13 @@
         <v>2346</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2215</v>
+        <v>2904</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>113</v>
@@ -10735,13 +11071,13 @@
         <v>2346</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>2215</v>
+        <v>2904</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>117</v>
@@ -10755,13 +11091,13 @@
         <v>2346</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>2215</v>
+        <v>2904</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>121</v>
@@ -10775,13 +11111,13 @@
         <v>2346</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>2215</v>
+        <v>2904</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>128</v>
@@ -10795,13 +11131,13 @@
         <v>2346</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>2215</v>
+        <v>2904</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>132</v>
@@ -10815,13 +11151,13 @@
         <v>2346</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>2215</v>
+        <v>2904</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>140</v>
@@ -10835,13 +11171,13 @@
         <v>2346</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>2215</v>
+        <v>2904</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>146</v>
@@ -10855,13 +11191,13 @@
         <v>2346</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>2215</v>
+        <v>2904</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>150</v>
@@ -10875,13 +11211,13 @@
         <v>2346</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>2215</v>
+        <v>2904</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>168</v>
@@ -10895,13 +11231,13 @@
         <v>2346</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2394</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>2216</v>
+        <v>2905</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>174</v>
@@ -10915,13 +11251,13 @@
         <v>2346</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2394</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>2216</v>
+        <v>2905</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>176</v>
@@ -10935,13 +11271,13 @@
         <v>2346</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2394</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>2216</v>
+        <v>2905</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>180</v>
@@ -10955,13 +11291,13 @@
         <v>2346</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2394</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>2216</v>
+        <v>2905</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>184</v>
@@ -10975,13 +11311,13 @@
         <v>2346</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2397</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>2217</v>
+        <v>2906</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>188</v>
@@ -10995,13 +11331,13 @@
         <v>2346</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2399</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>2218</v>
+        <v>2911</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>194</v>
@@ -11015,13 +11351,13 @@
         <v>2346</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2399</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>2218</v>
+        <v>2911</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>204</v>
@@ -11035,13 +11371,13 @@
         <v>2346</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2399</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>2218</v>
+        <v>2911</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>210</v>
@@ -11055,13 +11391,13 @@
         <v>2346</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>2219</v>
+        <v>2913</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>222</v>
@@ -11075,13 +11411,13 @@
         <v>2346</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>2219</v>
+        <v>2912</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>230</v>
@@ -11095,13 +11431,13 @@
         <v>2346</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>2219</v>
+        <v>2913</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>236</v>
@@ -11115,13 +11451,13 @@
         <v>2346</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>2219</v>
+        <v>2912</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>242</v>
@@ -11135,13 +11471,13 @@
         <v>2346</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2219</v>
+        <v>2912</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>246</v>
@@ -11155,13 +11491,13 @@
         <v>2346</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2219</v>
+        <v>2913</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>270</v>
@@ -11175,13 +11511,13 @@
         <v>2346</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2219</v>
+        <v>2912</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>274</v>
@@ -11195,13 +11531,13 @@
         <v>2346</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2219</v>
+        <v>2912</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>289</v>
@@ -11215,13 +11551,13 @@
         <v>2346</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2219</v>
+        <v>2912</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>293</v>
@@ -11235,13 +11571,13 @@
         <v>2346</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2219</v>
+        <v>2912</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>297</v>
@@ -11255,13 +11591,13 @@
         <v>2346</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2219</v>
+        <v>2912</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>303</v>
@@ -11275,13 +11611,13 @@
         <v>2346</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2432</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2221</v>
+        <v>2915</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>307</v>
@@ -11295,13 +11631,13 @@
         <v>2346</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2432</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2221</v>
+        <v>2915</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>331</v>
@@ -11315,13 +11651,13 @@
         <v>2346</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2432</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2221</v>
+        <v>2915</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>335</v>
@@ -11335,13 +11671,13 @@
         <v>2346</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2432</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2221</v>
+        <v>2915</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>341</v>
@@ -11355,13 +11691,13 @@
         <v>2346</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2441</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>346</v>
+        <v>2907</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>345</v>
@@ -11375,13 +11711,13 @@
         <v>2346</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2443</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2222</v>
+        <v>2914</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>363</v>
@@ -11395,13 +11731,13 @@
         <v>2346</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2443</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2222</v>
+        <v>2914</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>367</v>
@@ -11415,13 +11751,13 @@
         <v>2346</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2443</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2222</v>
+        <v>2914</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>431</v>
@@ -11435,13 +11771,13 @@
         <v>2346</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2452</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2223</v>
+        <v>2916</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>435</v>
@@ -11455,13 +11791,13 @@
         <v>2346</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2452</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2223</v>
+        <v>2916</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>462</v>
@@ -11475,13 +11811,13 @@
         <v>2346</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2452</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>2223</v>
+        <v>2916</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>474</v>
@@ -11495,13 +11831,13 @@
         <v>2346</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2452</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>2223</v>
+        <v>2916</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>478</v>
@@ -11515,13 +11851,13 @@
         <v>2346</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2452</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>2223</v>
+        <v>2916</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>502</v>
@@ -11535,13 +11871,13 @@
         <v>2346</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2452</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>2223</v>
+        <v>2916</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>506</v>
@@ -11555,13 +11891,13 @@
         <v>2346</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2467</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>2224</v>
+        <v>2908</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>512</v>
@@ -11575,13 +11911,13 @@
         <v>2346</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2467</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>2224</v>
+        <v>2908</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>517</v>
@@ -11595,13 +11931,13 @@
         <v>2346</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2467</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>2224</v>
+        <v>2908</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>521</v>
@@ -11615,13 +11951,13 @@
         <v>2346</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2480</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>2225</v>
+        <v>2917</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>531</v>
@@ -11635,13 +11971,13 @@
         <v>2346</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2480</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>2225</v>
+        <v>2917</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>535</v>
@@ -11655,13 +11991,13 @@
         <v>2346</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2480</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>2225</v>
+        <v>2917</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>547</v>
@@ -11675,13 +12011,13 @@
         <v>2346</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2487</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>2226</v>
+        <v>2918</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>553</v>
@@ -11695,13 +12031,13 @@
         <v>2346</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2487</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2226</v>
+        <v>2918</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>557</v>
@@ -11715,13 +12051,13 @@
         <v>2346</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2487</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>2226</v>
+        <v>2918</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>561</v>
@@ -11735,13 +12071,13 @@
         <v>2346</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2496</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>2227</v>
+        <v>2919</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>585</v>
@@ -11755,13 +12091,13 @@
         <v>2346</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2498</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>2228</v>
+        <v>2920</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>595</v>
@@ -11775,13 +12111,13 @@
         <v>2346</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2498</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>2228</v>
+        <v>2920</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>607</v>
@@ -11795,13 +12131,13 @@
         <v>2346</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2503</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>2230</v>
+        <v>2921</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>2229</v>
@@ -11815,13 +12151,13 @@
         <v>2346</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2505</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>2232</v>
+        <v>2922</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>613</v>
@@ -11835,13 +12171,13 @@
         <v>2346</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2507</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>2233</v>
+        <v>2923</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>619</v>
@@ -11855,13 +12191,13 @@
         <v>2346</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>2212</v>
+        <v>2894</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2510</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>638</v>
+        <v>2924</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>637</v>
@@ -11875,13 +12211,13 @@
         <v>2517</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>2234</v>
+        <v>2895</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2518</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>2235</v>
+        <v>2926</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>677</v>
@@ -11895,13 +12231,13 @@
         <v>2517</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>2234</v>
+        <v>2895</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2518</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>2235</v>
+        <v>2926</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>681</v>
@@ -11915,13 +12251,13 @@
         <v>2517</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>2234</v>
+        <v>2895</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2518</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>2235</v>
+        <v>2926</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>685</v>
@@ -11935,13 +12271,13 @@
         <v>2517</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2234</v>
+        <v>2895</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2518</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>2235</v>
+        <v>2926</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>691</v>
@@ -11955,13 +12291,13 @@
         <v>2517</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>2234</v>
+        <v>2895</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>2530</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>2236</v>
+        <v>2925</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>695</v>
@@ -11975,13 +12311,13 @@
         <v>2517</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>2234</v>
+        <v>2895</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2530</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2236</v>
+        <v>2925</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>699</v>
@@ -11995,13 +12331,13 @@
         <v>2534</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>2238</v>
+        <v>2927</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>703</v>
@@ -12015,13 +12351,13 @@
         <v>2534</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>2238</v>
+        <v>2927</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>739</v>
@@ -12035,13 +12371,13 @@
         <v>2534</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>2238</v>
+        <v>2927</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>761</v>
@@ -12055,13 +12391,13 @@
         <v>2534</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>2238</v>
+        <v>2927</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>765</v>
@@ -12075,13 +12411,13 @@
         <v>2534</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>2238</v>
+        <v>2927</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>769</v>
@@ -12095,13 +12431,13 @@
         <v>2534</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>2238</v>
+        <v>2927</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>773</v>
@@ -12115,13 +12451,13 @@
         <v>2534</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>2238</v>
+        <v>2927</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>777</v>
@@ -12135,13 +12471,13 @@
         <v>2534</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>2238</v>
+        <v>2927</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>781</v>
@@ -12155,13 +12491,13 @@
         <v>2534</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>2238</v>
+        <v>2927</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>785</v>
@@ -12175,13 +12511,13 @@
         <v>2534</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>2238</v>
+        <v>2927</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>789</v>
@@ -12195,13 +12531,13 @@
         <v>2534</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>2238</v>
+        <v>2927</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>805</v>
@@ -12215,13 +12551,13 @@
         <v>2534</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>2238</v>
+        <v>2927</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>810</v>
@@ -12235,13 +12571,13 @@
         <v>2534</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>2238</v>
+        <v>2927</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>836</v>
@@ -12255,13 +12591,13 @@
         <v>2534</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>2238</v>
+        <v>2927</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>838</v>
@@ -12275,13 +12611,13 @@
         <v>2534</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>2545</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>2239</v>
+        <v>2928</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>842</v>
@@ -12295,13 +12631,13 @@
         <v>2534</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2545</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>2239</v>
+        <v>2928</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>846</v>
@@ -12315,13 +12651,13 @@
         <v>2534</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>2548</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>2240</v>
+        <v>2929</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>850</v>
@@ -12335,13 +12671,13 @@
         <v>2534</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2548</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>2240</v>
+        <v>2929</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>856</v>
@@ -12355,13 +12691,13 @@
         <v>2534</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2548</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>2240</v>
+        <v>2929</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>860</v>
@@ -12375,13 +12711,13 @@
         <v>2534</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2548</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>2240</v>
+        <v>2929</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>862</v>
@@ -12395,13 +12731,13 @@
         <v>2534</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2550</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>2241</v>
+        <v>2930</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>866</v>
@@ -12415,13 +12751,13 @@
         <v>2534</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>2550</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>2241</v>
+        <v>2930</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>876</v>
@@ -12435,13 +12771,13 @@
         <v>2534</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2550</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>2241</v>
+        <v>2930</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>882</v>
@@ -12455,13 +12791,13 @@
         <v>2534</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>2550</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>2241</v>
+        <v>2930</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>885</v>
@@ -12475,13 +12811,13 @@
         <v>2534</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2552</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>2242</v>
+        <v>2931</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>887</v>
@@ -12495,13 +12831,13 @@
         <v>2534</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2552</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>2242</v>
+        <v>2931</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>891</v>
@@ -12515,13 +12851,13 @@
         <v>2534</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2554</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>2243</v>
+        <v>2932</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>895</v>
@@ -12535,13 +12871,13 @@
         <v>2534</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2555</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>2244</v>
+        <v>2933</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>899</v>
@@ -12555,13 +12891,13 @@
         <v>2534</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2555</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>2244</v>
+        <v>2933</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>903</v>
@@ -12575,13 +12911,13 @@
         <v>2534</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>2245</v>
+        <v>2934</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>919</v>
@@ -12595,13 +12931,13 @@
         <v>2534</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>2245</v>
+        <v>2935</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>931</v>
@@ -12615,13 +12951,13 @@
         <v>2534</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>2245</v>
+        <v>2934</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>937</v>
@@ -12635,13 +12971,13 @@
         <v>2534</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>2245</v>
+        <v>2934</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>939</v>
@@ -12655,13 +12991,13 @@
         <v>2534</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>2245</v>
+        <v>2934</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>943</v>
@@ -12675,13 +13011,13 @@
         <v>2534</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>2245</v>
+        <v>2934</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>953</v>
@@ -12695,13 +13031,13 @@
         <v>2534</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>2245</v>
+        <v>2934</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>957</v>
@@ -12715,13 +13051,13 @@
         <v>2534</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>2245</v>
+        <v>2934</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>963</v>
@@ -12735,13 +13071,13 @@
         <v>2534</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>2245</v>
+        <v>2934</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>971</v>
@@ -12755,13 +13091,13 @@
         <v>2534</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>2569</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>2246</v>
+        <v>2936</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>979</v>
@@ -12775,13 +13111,13 @@
         <v>2534</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>2569</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>2246</v>
+        <v>2936</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>993</v>
@@ -12795,13 +13131,13 @@
         <v>2534</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>2569</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>2246</v>
+        <v>2936</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>1009</v>
@@ -12815,13 +13151,13 @@
         <v>2534</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>2569</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>2246</v>
+        <v>2936</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>1013</v>
@@ -12835,13 +13171,13 @@
         <v>2534</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>2237</v>
+        <v>2896</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>2579</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>2248</v>
+        <v>2937</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>1016</v>
@@ -12855,13 +13191,13 @@
         <v>2584</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>2249</v>
+        <v>2897</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>2585</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>2250</v>
+        <v>2938</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>1062</v>
@@ -12875,13 +13211,13 @@
         <v>2589</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>2590</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>2252</v>
+        <v>2939</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>1104</v>
@@ -12895,13 +13231,13 @@
         <v>2589</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>2590</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>2252</v>
+        <v>2939</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>1107</v>
@@ -12915,13 +13251,13 @@
         <v>2589</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>2590</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>2252</v>
+        <v>2939</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>1110</v>
@@ -12935,13 +13271,13 @@
         <v>2589</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>2590</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>2252</v>
+        <v>2939</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>1115</v>
@@ -12955,13 +13291,13 @@
         <v>2589</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>2590</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>2252</v>
+        <v>2939</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>1119</v>
@@ -12975,13 +13311,13 @@
         <v>2589</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>2590</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>2252</v>
+        <v>2939</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>1122</v>
@@ -12995,13 +13331,13 @@
         <v>2589</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>2599</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>2253</v>
+        <v>2940</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>1126</v>
@@ -13015,13 +13351,13 @@
         <v>2589</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2599</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>2253</v>
+        <v>2940</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>1129</v>
@@ -13035,13 +13371,13 @@
         <v>2589</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>2599</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>2253</v>
+        <v>2940</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>1132</v>
@@ -13055,13 +13391,13 @@
         <v>2589</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>2605</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>2254</v>
+        <v>2941</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>1136</v>
@@ -13075,13 +13411,13 @@
         <v>2589</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>2605</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>2254</v>
+        <v>2941</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>1138</v>
@@ -13095,13 +13431,13 @@
         <v>2589</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>2605</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>2254</v>
+        <v>2941</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>1140</v>
@@ -13115,13 +13451,13 @@
         <v>2589</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>2605</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>2254</v>
+        <v>2941</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>1144</v>
@@ -13135,13 +13471,13 @@
         <v>2589</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>2605</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>2254</v>
+        <v>2941</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>1150</v>
@@ -13155,13 +13491,13 @@
         <v>2589</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>2615</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1157</v>
+        <v>2942</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>1156</v>
@@ -13175,13 +13511,13 @@
         <v>2589</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>2617</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>2255</v>
+        <v>2943</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>1158</v>
@@ -13195,13 +13531,13 @@
         <v>2589</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>2620</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>2256</v>
+        <v>2944</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>1166</v>
@@ -13215,13 +13551,13 @@
         <v>2589</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>2620</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>2256</v>
+        <v>2944</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>1168</v>
@@ -13235,13 +13571,13 @@
         <v>2589</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>2620</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>2256</v>
+        <v>2944</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>1170</v>
@@ -13255,13 +13591,13 @@
         <v>2589</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>2620</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>2256</v>
+        <v>2944</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>1172</v>
@@ -13275,13 +13611,13 @@
         <v>2589</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>2620</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>2256</v>
+        <v>2944</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>1174</v>
@@ -13295,13 +13631,13 @@
         <v>2589</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>2629</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>2211</v>
+        <v>2945</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>1182</v>
@@ -13315,13 +13651,13 @@
         <v>2589</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>2632</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>2257</v>
+        <v>2946</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>1184</v>
@@ -13335,13 +13671,13 @@
         <v>2589</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>2632</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>2257</v>
+        <v>2946</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>1186</v>
@@ -13355,13 +13691,13 @@
         <v>2589</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>2632</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>2257</v>
+        <v>2946</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>1188</v>
@@ -13375,13 +13711,13 @@
         <v>2589</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>2632</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>2257</v>
+        <v>2946</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>1192</v>
@@ -13395,7 +13731,7 @@
         <v>2589</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>2638</v>
@@ -13415,7 +13751,7 @@
         <v>2589</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>2645</v>
@@ -13435,13 +13771,13 @@
         <v>2589</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>2656</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>2260</v>
+        <v>2976</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>2261</v>
@@ -13455,13 +13791,13 @@
         <v>2589</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>2251</v>
+        <v>2898</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>2656</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>2260</v>
+        <v>2976</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>2262</v>
@@ -13475,13 +13811,13 @@
         <v>2661</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>2662</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>2264</v>
+        <v>2975</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>1236</v>
@@ -13495,13 +13831,13 @@
         <v>2661</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>2665</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>2265</v>
+        <v>2974</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>1238</v>
@@ -13515,13 +13851,13 @@
         <v>2661</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>2665</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>2265</v>
+        <v>2974</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>1240</v>
@@ -13535,13 +13871,13 @@
         <v>2661</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>2665</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>2265</v>
+        <v>2974</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>1242</v>
@@ -13555,13 +13891,13 @@
         <v>2661</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>2670</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>2266</v>
+        <v>2973</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>1244</v>
@@ -13575,13 +13911,13 @@
         <v>2661</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>2672</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>2267</v>
+        <v>2972</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>1248</v>
@@ -13595,13 +13931,13 @@
         <v>2661</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>2672</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>2267</v>
+        <v>2972</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>1254</v>
@@ -13615,13 +13951,13 @@
         <v>2661</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2672</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>2267</v>
+        <v>2972</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>1256</v>
@@ -13635,13 +13971,13 @@
         <v>2661</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>2679</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>2268</v>
+        <v>2971</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>1258</v>
@@ -13655,13 +13991,13 @@
         <v>2661</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>2679</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>2268</v>
+        <v>2971</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>1260</v>
@@ -13675,13 +14011,13 @@
         <v>2661</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>2269</v>
+        <v>2970</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>1268</v>
@@ -13695,13 +14031,13 @@
         <v>2661</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>2269</v>
+        <v>2970</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>1272</v>
@@ -13715,13 +14051,13 @@
         <v>2661</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>2687</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>2270</v>
+        <v>2969</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>1282</v>
@@ -13735,13 +14071,13 @@
         <v>2661</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>2687</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>2270</v>
+        <v>2969</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>1302</v>
@@ -13755,13 +14091,13 @@
         <v>2661</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>2693</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>2271</v>
+        <v>2968</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>1312</v>
@@ -13775,13 +14111,13 @@
         <v>2661</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>2693</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>2271</v>
+        <v>2967</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>1314</v>
@@ -13795,13 +14131,13 @@
         <v>2661</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>2700</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>2272</v>
+        <v>2965</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>1318</v>
@@ -13815,13 +14151,13 @@
         <v>2661</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>2700</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>2272</v>
+        <v>2965</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>1322</v>
@@ -13835,13 +14171,13 @@
         <v>2661</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>2700</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>2272</v>
+        <v>2965</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>1326</v>
@@ -13855,13 +14191,13 @@
         <v>2661</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>2700</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>2272</v>
+        <v>2965</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>1330</v>
@@ -13875,13 +14211,13 @@
         <v>2661</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>2700</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>2272</v>
+        <v>2965</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>1338</v>
@@ -13895,13 +14231,13 @@
         <v>2661</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>2713</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>2273</v>
+        <v>2966</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>1362</v>
@@ -13915,13 +14251,13 @@
         <v>2661</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>2713</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>2273</v>
+        <v>2966</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>1366</v>
@@ -13935,13 +14271,13 @@
         <v>2661</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>2263</v>
+        <v>2977</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>2713</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>2273</v>
+        <v>2966</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>1370</v>
@@ -13955,13 +14291,13 @@
         <v>2721</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>2722</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>2276</v>
+        <v>2964</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>2275</v>
@@ -13975,13 +14311,13 @@
         <v>2721</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>2279</v>
+        <v>2963</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>2278</v>
@@ -13995,13 +14331,13 @@
         <v>2721</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>2279</v>
+        <v>2963</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>1426</v>
@@ -14015,13 +14351,13 @@
         <v>2721</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>2279</v>
+        <v>2963</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>2281</v>
@@ -14035,13 +14371,13 @@
         <v>2721</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>2279</v>
+        <v>2963</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>1430</v>
@@ -14055,13 +14391,13 @@
         <v>2721</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>2279</v>
+        <v>2963</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>2283</v>
@@ -14075,13 +14411,13 @@
         <v>2721</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>2279</v>
+        <v>2963</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>2285</v>
@@ -14095,13 +14431,13 @@
         <v>2721</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>2279</v>
+        <v>2963</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>2287</v>
@@ -14115,13 +14451,13 @@
         <v>2721</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>2279</v>
+        <v>2963</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>2289</v>
@@ -14135,13 +14471,13 @@
         <v>2721</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>2279</v>
+        <v>2963</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>1474</v>
@@ -14155,13 +14491,13 @@
         <v>2721</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>2279</v>
+        <v>2963</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>1480</v>
@@ -14175,13 +14511,13 @@
         <v>2721</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>2279</v>
+        <v>2963</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>2291</v>
@@ -14195,13 +14531,13 @@
         <v>2721</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>2279</v>
+        <v>2963</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>2293</v>
@@ -14215,13 +14551,13 @@
         <v>2721</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>2279</v>
+        <v>2963</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>2295</v>
@@ -14235,13 +14571,13 @@
         <v>2721</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>2279</v>
+        <v>2963</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>2297</v>
@@ -14255,13 +14591,13 @@
         <v>2721</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>2279</v>
+        <v>2963</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>2299</v>
@@ -14275,13 +14611,13 @@
         <v>2721</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>2753</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>2301</v>
+        <v>2962</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>1666</v>
@@ -14295,13 +14631,13 @@
         <v>2721</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>2274</v>
+        <v>2899</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>2753</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>2301</v>
+        <v>2962</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>1670</v>
@@ -14315,7 +14651,7 @@
         <v>2757</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2758</v>
@@ -14335,7 +14671,7 @@
         <v>2757</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>2758</v>
@@ -14355,7 +14691,7 @@
         <v>2757</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>2758</v>
@@ -14375,7 +14711,7 @@
         <v>2757</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>2758</v>
@@ -14395,7 +14731,7 @@
         <v>2757</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>2758</v>
@@ -14415,7 +14751,7 @@
         <v>2757</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>2766</v>
@@ -14435,7 +14771,7 @@
         <v>2757</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>2766</v>
@@ -14455,7 +14791,7 @@
         <v>2757</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>2766</v>
@@ -14475,7 +14811,7 @@
         <v>2757</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>2766</v>
@@ -14495,7 +14831,7 @@
         <v>2757</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2766</v>
@@ -14515,7 +14851,7 @@
         <v>2757</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>2766</v>
@@ -14535,7 +14871,7 @@
         <v>2757</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>2766</v>
@@ -14555,7 +14891,7 @@
         <v>2757</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>2766</v>
@@ -14575,7 +14911,7 @@
         <v>2757</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>2766</v>
@@ -14595,7 +14931,7 @@
         <v>2757</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>2766</v>
@@ -14615,7 +14951,7 @@
         <v>2757</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>2766</v>
@@ -14635,7 +14971,7 @@
         <v>2757</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>2766</v>
@@ -14655,13 +14991,13 @@
         <v>2757</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>2302</v>
+        <v>2900</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>2773</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>2304</v>
+        <v>2961</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>1708</v>
@@ -14675,13 +15011,13 @@
         <v>2775</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>2776</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>2306</v>
+        <v>2960</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>1734</v>
@@ -14695,13 +15031,13 @@
         <v>2775</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>2307</v>
+        <v>2951</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>1779</v>
@@ -14715,13 +15051,13 @@
         <v>2775</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>2307</v>
+        <v>2951</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>1783</v>
@@ -14735,13 +15071,13 @@
         <v>2775</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>2307</v>
+        <v>2951</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>1787</v>
@@ -14755,13 +15091,13 @@
         <v>2775</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>2307</v>
+        <v>2951</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>1794</v>
@@ -14775,13 +15111,13 @@
         <v>2775</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>2307</v>
+        <v>2951</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>1797</v>
@@ -14795,13 +15131,13 @@
         <v>2775</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>2307</v>
+        <v>2951</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>1802</v>
@@ -14815,13 +15151,13 @@
         <v>2775</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>2307</v>
+        <v>2951</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>1808</v>
@@ -14835,13 +15171,13 @@
         <v>2775</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>2307</v>
+        <v>2951</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>1813</v>
@@ -14855,13 +15191,13 @@
         <v>2775</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>2307</v>
+        <v>2951</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>1816</v>
@@ -14875,13 +15211,13 @@
         <v>2775</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>2307</v>
+        <v>2951</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>1878</v>
@@ -14895,13 +15231,13 @@
         <v>2775</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>2308</v>
+        <v>2959</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>1908</v>
@@ -14915,13 +15251,13 @@
         <v>2775</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>2308</v>
+        <v>2959</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>1922</v>
@@ -14935,13 +15271,13 @@
         <v>2775</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>2308</v>
+        <v>2959</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>1926</v>
@@ -14955,13 +15291,13 @@
         <v>2775</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>2308</v>
+        <v>2959</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>1930</v>
@@ -14975,13 +15311,13 @@
         <v>2775</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>2308</v>
+        <v>2959</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>1936</v>
@@ -14995,13 +15331,13 @@
         <v>2775</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>2308</v>
+        <v>2959</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>1939</v>
@@ -15015,13 +15351,13 @@
         <v>2775</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>2308</v>
+        <v>2959</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>1945</v>
@@ -15035,13 +15371,13 @@
         <v>2775</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>2308</v>
+        <v>2959</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>1949</v>
@@ -15055,13 +15391,13 @@
         <v>2775</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>2308</v>
+        <v>2959</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>1957</v>
@@ -15075,13 +15411,13 @@
         <v>2775</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>2305</v>
+        <v>2901</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>2308</v>
+        <v>2959</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>1959</v>
@@ -15095,13 +15431,13 @@
         <v>2826</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>2827</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>2310</v>
+        <v>2958</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>1963</v>
@@ -15115,13 +15451,13 @@
         <v>2826</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>2832</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>2311</v>
+        <v>2957</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>1967</v>
@@ -15135,13 +15471,13 @@
         <v>2826</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>2834</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>2312</v>
+        <v>2956</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>1973</v>
@@ -15155,13 +15491,13 @@
         <v>2826</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>2834</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>2312</v>
+        <v>2956</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>1981</v>
@@ -15175,13 +15511,13 @@
         <v>2826</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>2842</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>1988</v>
+        <v>2955</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>1987</v>
@@ -15195,13 +15531,13 @@
         <v>2826</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>2844</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>1992</v>
+        <v>2954</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>1991</v>
@@ -15215,13 +15551,13 @@
         <v>2826</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>2847</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>2313</v>
+        <v>2953</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>2001</v>
@@ -15235,13 +15571,13 @@
         <v>2826</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>2847</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>2313</v>
+        <v>2953</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>2005</v>
@@ -15255,13 +15591,13 @@
         <v>2826</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>2847</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>2313</v>
+        <v>2953</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>2314</v>
@@ -15275,13 +15611,13 @@
         <v>2826</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>2847</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>2313</v>
+        <v>2953</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>2017</v>
@@ -15295,13 +15631,13 @@
         <v>2826</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>2856</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>2316</v>
+        <v>2950</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>2031</v>
@@ -15315,13 +15651,13 @@
         <v>2826</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>2856</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>2316</v>
+        <v>2950</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>2039</v>
@@ -15335,13 +15671,13 @@
         <v>2826</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2856</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>2316</v>
+        <v>2950</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>2043</v>
@@ -15355,13 +15691,13 @@
         <v>2826</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>2867</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>2317</v>
+        <v>2949</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>2047</v>
@@ -15375,13 +15711,13 @@
         <v>2826</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2867</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>2317</v>
+        <v>2949</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>2055</v>
@@ -15395,13 +15731,13 @@
         <v>2826</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2867</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>2317</v>
+        <v>2949</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>2065</v>
@@ -15415,13 +15751,13 @@
         <v>2826</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>2874</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>2318</v>
+        <v>2948</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>2073</v>
@@ -15435,13 +15771,13 @@
         <v>2826</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>2874</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>2318</v>
+        <v>2948</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>2083</v>
@@ -15455,13 +15791,13 @@
         <v>2826</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>2882</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>2319</v>
+        <v>2947</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>2087</v>
@@ -15475,13 +15811,13 @@
         <v>2826</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>2882</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>2319</v>
+        <v>2947</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>2091</v>
@@ -15495,13 +15831,13 @@
         <v>2826</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>2887</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>2320</v>
+        <v>2952</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>2095</v>
@@ -15515,13 +15851,13 @@
         <v>2826</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>2309</v>
+        <v>2902</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>2887</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>2320</v>
+        <v>2952</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>2105</v>
@@ -15536,6 +15872,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15562,18 +15899,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>2336</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24" t="s">
         <v>2337</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -39893,20 +40230,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>2892</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>2893</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -39921,22 +40258,22 @@
       <c r="D2" s="7" t="s">
         <v>2343</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="20" t="s">
         <v>2331</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="20" t="s">
         <v>2339</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="20" t="s">
         <v>2341</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="20" t="s">
         <v>2343</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="20" t="s">
         <v>2344</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="20" t="s">
         <v>2345</v>
       </c>
     </row>

--- a/TMRTeamProjectPython/init/seoul_local_people/upjong_code.xlsx
+++ b/TMRTeamProjectPython/init/seoul_local_people/upjong_code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\TMRTeamProject\TMRTeamProjectPython\daejeon_upjong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\01 상권정보시스템\★2022년\04. 용역\2. 상권정보시스템_DB재설계_및_기능개선\3. 사업추진\1. DB재설계\업종분류체계\공지사항(안내용)\구분류_2302코드\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11477" uniqueCount="2978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11477" uniqueCount="2894">
   <si>
     <t>F12A10</t>
   </si>
@@ -8826,342 +8826,6 @@
   </si>
   <si>
     <t>통계청 제10차 표준산업분류(277개)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음식점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부동산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과학/기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보건의료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예체능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리/개인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종합 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식료품 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음료 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담배 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가구 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연료소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모터사이클 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동차 부품 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가전제품/통신장비 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>섬유/의복/신발 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>섬유/의복/신발 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 생활용품 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건설자재 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화/오락 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의약/화장품 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안경/정밀기기 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시계/귀금속 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장식품 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식물 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애완동물용품 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 상품 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중고 상품 소매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 숙박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 숙박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서양식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동남아시아식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 외국식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구내식당/뷔페</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 간이 음식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 간이 음식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비알코올 음료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부동산 서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>법무 서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회계/세무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시장 조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경영 컨설팅 서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술 서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전문 디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장례식 서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세탁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>욕탕/신체관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용/미용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스포츠 서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 개인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가정용품 수리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가전제품 수리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모터사이클 수리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동차 수리/세차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통신장비 수리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터 수리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유원지/오락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서관/사적지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 보건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육 지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 교육</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 교육</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인/가정용품 대여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산업용품 대여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운송장비 대여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운송장비 대여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업 지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사무 지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행사/여행 보조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고용 알선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조경관리/유지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청소/방제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유지/관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 전문 과학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업시설/임대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9485,12 +9149,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9507,6 +9165,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10879,8 +10543,8 @@
   <dimension ref="A1:F249"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B147" sqref="B147:B170"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10897,14 +10561,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>2892</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -10931,13 +10595,13 @@
         <v>2346</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2347</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2910</v>
+        <v>2213</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -10951,13 +10615,13 @@
         <v>2346</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2347</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2910</v>
+        <v>2213</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -10971,13 +10635,13 @@
         <v>2346</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2362</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2909</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>42</v>
@@ -10991,13 +10655,13 @@
         <v>2346</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2365</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2903</v>
+        <v>2214</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>73</v>
@@ -11011,13 +10675,13 @@
         <v>2346</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2365</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2903</v>
+        <v>2214</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>76</v>
@@ -11031,13 +10695,13 @@
         <v>2346</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2365</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2903</v>
+        <v>2214</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>81</v>
@@ -11051,13 +10715,13 @@
         <v>2346</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2904</v>
+        <v>2215</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>113</v>
@@ -11071,13 +10735,13 @@
         <v>2346</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>2904</v>
+        <v>2215</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>117</v>
@@ -11091,13 +10755,13 @@
         <v>2346</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>2904</v>
+        <v>2215</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>121</v>
@@ -11111,13 +10775,13 @@
         <v>2346</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>2904</v>
+        <v>2215</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>128</v>
@@ -11131,13 +10795,13 @@
         <v>2346</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>2904</v>
+        <v>2215</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>132</v>
@@ -11151,13 +10815,13 @@
         <v>2346</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>2904</v>
+        <v>2215</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>140</v>
@@ -11171,13 +10835,13 @@
         <v>2346</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>2904</v>
+        <v>2215</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>146</v>
@@ -11191,13 +10855,13 @@
         <v>2346</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>2904</v>
+        <v>2215</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>150</v>
@@ -11211,13 +10875,13 @@
         <v>2346</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2377</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>2904</v>
+        <v>2215</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>168</v>
@@ -11231,13 +10895,13 @@
         <v>2346</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2394</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>2905</v>
+        <v>2216</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>174</v>
@@ -11251,13 +10915,13 @@
         <v>2346</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2394</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>2905</v>
+        <v>2216</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>176</v>
@@ -11271,13 +10935,13 @@
         <v>2346</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2394</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>2905</v>
+        <v>2216</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>180</v>
@@ -11291,13 +10955,13 @@
         <v>2346</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2394</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>2905</v>
+        <v>2216</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>184</v>
@@ -11311,13 +10975,13 @@
         <v>2346</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2397</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>2906</v>
+        <v>2217</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>188</v>
@@ -11331,13 +10995,13 @@
         <v>2346</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2399</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>2911</v>
+        <v>2218</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>194</v>
@@ -11351,13 +11015,13 @@
         <v>2346</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2399</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>2911</v>
+        <v>2218</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>204</v>
@@ -11371,13 +11035,13 @@
         <v>2346</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2399</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>2911</v>
+        <v>2218</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>210</v>
@@ -11391,13 +11055,13 @@
         <v>2346</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>2913</v>
+        <v>2219</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>222</v>
@@ -11411,13 +11075,13 @@
         <v>2346</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>2912</v>
+        <v>2219</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>230</v>
@@ -11431,13 +11095,13 @@
         <v>2346</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>2913</v>
+        <v>2219</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>236</v>
@@ -11451,13 +11115,13 @@
         <v>2346</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>2912</v>
+        <v>2219</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>242</v>
@@ -11471,13 +11135,13 @@
         <v>2346</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2912</v>
+        <v>2219</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>246</v>
@@ -11491,13 +11155,13 @@
         <v>2346</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2913</v>
+        <v>2219</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>270</v>
@@ -11511,13 +11175,13 @@
         <v>2346</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2912</v>
+        <v>2219</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>274</v>
@@ -11531,13 +11195,13 @@
         <v>2346</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2912</v>
+        <v>2219</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>289</v>
@@ -11551,13 +11215,13 @@
         <v>2346</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2912</v>
+        <v>2219</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>293</v>
@@ -11571,13 +11235,13 @@
         <v>2346</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2912</v>
+        <v>2219</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>297</v>
@@ -11591,13 +11255,13 @@
         <v>2346</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2912</v>
+        <v>2219</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>303</v>
@@ -11611,13 +11275,13 @@
         <v>2346</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2432</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2915</v>
+        <v>2221</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>307</v>
@@ -11631,13 +11295,13 @@
         <v>2346</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2432</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2915</v>
+        <v>2221</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>331</v>
@@ -11651,13 +11315,13 @@
         <v>2346</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2432</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2915</v>
+        <v>2221</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>335</v>
@@ -11671,13 +11335,13 @@
         <v>2346</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2432</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2915</v>
+        <v>2221</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>341</v>
@@ -11691,13 +11355,13 @@
         <v>2346</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2441</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>2907</v>
+        <v>346</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>345</v>
@@ -11711,13 +11375,13 @@
         <v>2346</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2443</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2914</v>
+        <v>2222</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>363</v>
@@ -11731,13 +11395,13 @@
         <v>2346</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2443</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2914</v>
+        <v>2222</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>367</v>
@@ -11751,13 +11415,13 @@
         <v>2346</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2443</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2914</v>
+        <v>2222</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>431</v>
@@ -11771,13 +11435,13 @@
         <v>2346</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2452</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2916</v>
+        <v>2223</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>435</v>
@@ -11791,13 +11455,13 @@
         <v>2346</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2452</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2916</v>
+        <v>2223</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>462</v>
@@ -11811,13 +11475,13 @@
         <v>2346</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2452</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>2916</v>
+        <v>2223</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>474</v>
@@ -11831,13 +11495,13 @@
         <v>2346</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2452</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>2916</v>
+        <v>2223</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>478</v>
@@ -11851,13 +11515,13 @@
         <v>2346</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2452</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>2916</v>
+        <v>2223</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>502</v>
@@ -11871,13 +11535,13 @@
         <v>2346</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2452</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>2916</v>
+        <v>2223</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>506</v>
@@ -11891,13 +11555,13 @@
         <v>2346</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2467</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>2908</v>
+        <v>2224</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>512</v>
@@ -11911,13 +11575,13 @@
         <v>2346</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2467</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>2908</v>
+        <v>2224</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>517</v>
@@ -11931,13 +11595,13 @@
         <v>2346</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2467</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>2908</v>
+        <v>2224</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>521</v>
@@ -11951,13 +11615,13 @@
         <v>2346</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2480</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>2917</v>
+        <v>2225</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>531</v>
@@ -11971,13 +11635,13 @@
         <v>2346</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2480</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>2917</v>
+        <v>2225</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>535</v>
@@ -11991,13 +11655,13 @@
         <v>2346</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2480</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>2917</v>
+        <v>2225</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>547</v>
@@ -12011,13 +11675,13 @@
         <v>2346</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2487</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>2918</v>
+        <v>2226</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>553</v>
@@ -12031,13 +11695,13 @@
         <v>2346</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2487</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2918</v>
+        <v>2226</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>557</v>
@@ -12051,13 +11715,13 @@
         <v>2346</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2487</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>2918</v>
+        <v>2226</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>561</v>
@@ -12071,13 +11735,13 @@
         <v>2346</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2496</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>2919</v>
+        <v>2227</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>585</v>
@@ -12091,13 +11755,13 @@
         <v>2346</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2498</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>2920</v>
+        <v>2228</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>595</v>
@@ -12111,13 +11775,13 @@
         <v>2346</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2498</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>2920</v>
+        <v>2228</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>607</v>
@@ -12131,13 +11795,13 @@
         <v>2346</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2503</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>2921</v>
+        <v>2230</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>2229</v>
@@ -12151,13 +11815,13 @@
         <v>2346</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2505</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>2922</v>
+        <v>2232</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>613</v>
@@ -12171,13 +11835,13 @@
         <v>2346</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2507</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>2923</v>
+        <v>2233</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>619</v>
@@ -12191,13 +11855,13 @@
         <v>2346</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>2894</v>
+        <v>2212</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2510</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>2924</v>
+        <v>638</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>637</v>
@@ -12211,13 +11875,13 @@
         <v>2517</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>2895</v>
+        <v>2234</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2518</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>2926</v>
+        <v>2235</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>677</v>
@@ -12231,13 +11895,13 @@
         <v>2517</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>2895</v>
+        <v>2234</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2518</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>2926</v>
+        <v>2235</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>681</v>
@@ -12251,13 +11915,13 @@
         <v>2517</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>2895</v>
+        <v>2234</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2518</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>2926</v>
+        <v>2235</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>685</v>
@@ -12271,13 +11935,13 @@
         <v>2517</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2895</v>
+        <v>2234</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2518</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>2926</v>
+        <v>2235</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>691</v>
@@ -12291,13 +11955,13 @@
         <v>2517</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>2895</v>
+        <v>2234</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>2530</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>2925</v>
+        <v>2236</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>695</v>
@@ -12311,13 +11975,13 @@
         <v>2517</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>2895</v>
+        <v>2234</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2530</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2925</v>
+        <v>2236</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>699</v>
@@ -12331,13 +11995,13 @@
         <v>2534</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>2927</v>
+        <v>2238</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>703</v>
@@ -12351,13 +12015,13 @@
         <v>2534</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>2927</v>
+        <v>2238</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>739</v>
@@ -12371,13 +12035,13 @@
         <v>2534</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>2927</v>
+        <v>2238</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>761</v>
@@ -12391,13 +12055,13 @@
         <v>2534</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>2927</v>
+        <v>2238</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>765</v>
@@ -12411,13 +12075,13 @@
         <v>2534</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>2927</v>
+        <v>2238</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>769</v>
@@ -12431,13 +12095,13 @@
         <v>2534</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>2927</v>
+        <v>2238</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>773</v>
@@ -12451,13 +12115,13 @@
         <v>2534</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>2927</v>
+        <v>2238</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>777</v>
@@ -12471,13 +12135,13 @@
         <v>2534</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>2927</v>
+        <v>2238</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>781</v>
@@ -12491,13 +12155,13 @@
         <v>2534</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>2927</v>
+        <v>2238</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>785</v>
@@ -12511,13 +12175,13 @@
         <v>2534</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>2927</v>
+        <v>2238</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>789</v>
@@ -12531,13 +12195,13 @@
         <v>2534</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>2927</v>
+        <v>2238</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>805</v>
@@ -12551,13 +12215,13 @@
         <v>2534</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>2927</v>
+        <v>2238</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>810</v>
@@ -12571,13 +12235,13 @@
         <v>2534</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>2927</v>
+        <v>2238</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>836</v>
@@ -12591,13 +12255,13 @@
         <v>2534</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>2927</v>
+        <v>2238</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>838</v>
@@ -12611,13 +12275,13 @@
         <v>2534</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>2545</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>2928</v>
+        <v>2239</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>842</v>
@@ -12631,13 +12295,13 @@
         <v>2534</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2545</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>2928</v>
+        <v>2239</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>846</v>
@@ -12651,13 +12315,13 @@
         <v>2534</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>2548</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>2929</v>
+        <v>2240</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>850</v>
@@ -12671,13 +12335,13 @@
         <v>2534</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2548</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>2929</v>
+        <v>2240</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>856</v>
@@ -12691,13 +12355,13 @@
         <v>2534</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2548</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>2929</v>
+        <v>2240</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>860</v>
@@ -12711,13 +12375,13 @@
         <v>2534</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2548</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>2929</v>
+        <v>2240</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>862</v>
@@ -12731,13 +12395,13 @@
         <v>2534</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2550</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>2930</v>
+        <v>2241</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>866</v>
@@ -12751,13 +12415,13 @@
         <v>2534</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>2550</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>2930</v>
+        <v>2241</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>876</v>
@@ -12771,13 +12435,13 @@
         <v>2534</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2550</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>2930</v>
+        <v>2241</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>882</v>
@@ -12791,13 +12455,13 @@
         <v>2534</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>2550</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>2930</v>
+        <v>2241</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>885</v>
@@ -12811,13 +12475,13 @@
         <v>2534</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2552</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>2931</v>
+        <v>2242</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>887</v>
@@ -12831,13 +12495,13 @@
         <v>2534</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2552</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>2931</v>
+        <v>2242</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>891</v>
@@ -12851,13 +12515,13 @@
         <v>2534</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2554</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>2932</v>
+        <v>2243</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>895</v>
@@ -12871,13 +12535,13 @@
         <v>2534</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2555</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>2933</v>
+        <v>2244</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>899</v>
@@ -12891,13 +12555,13 @@
         <v>2534</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2555</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>2933</v>
+        <v>2244</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>903</v>
@@ -12911,13 +12575,13 @@
         <v>2534</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>2934</v>
+        <v>2245</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>919</v>
@@ -12931,13 +12595,13 @@
         <v>2534</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>2935</v>
+        <v>2245</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>931</v>
@@ -12951,13 +12615,13 @@
         <v>2534</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>2934</v>
+        <v>2245</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>937</v>
@@ -12971,13 +12635,13 @@
         <v>2534</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>2934</v>
+        <v>2245</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>939</v>
@@ -12991,13 +12655,13 @@
         <v>2534</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>2934</v>
+        <v>2245</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>943</v>
@@ -13011,13 +12675,13 @@
         <v>2534</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>2934</v>
+        <v>2245</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>953</v>
@@ -13031,13 +12695,13 @@
         <v>2534</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>2934</v>
+        <v>2245</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>957</v>
@@ -13051,13 +12715,13 @@
         <v>2534</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>2934</v>
+        <v>2245</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>963</v>
@@ -13071,13 +12735,13 @@
         <v>2534</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>2934</v>
+        <v>2245</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>971</v>
@@ -13091,13 +12755,13 @@
         <v>2534</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>2569</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>2936</v>
+        <v>2246</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>979</v>
@@ -13111,13 +12775,13 @@
         <v>2534</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>2569</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>2936</v>
+        <v>2246</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>993</v>
@@ -13131,13 +12795,13 @@
         <v>2534</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>2569</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>2936</v>
+        <v>2246</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>1009</v>
@@ -13151,13 +12815,13 @@
         <v>2534</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>2569</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>2936</v>
+        <v>2246</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>1013</v>
@@ -13171,13 +12835,13 @@
         <v>2534</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>2896</v>
+        <v>2237</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>2579</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>2937</v>
+        <v>2248</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>1016</v>
@@ -13191,13 +12855,13 @@
         <v>2584</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>2897</v>
+        <v>2249</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>2585</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>2938</v>
+        <v>2250</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>1062</v>
@@ -13211,13 +12875,13 @@
         <v>2589</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>2590</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>2939</v>
+        <v>2252</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>1104</v>
@@ -13231,13 +12895,13 @@
         <v>2589</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>2590</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>2939</v>
+        <v>2252</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>1107</v>
@@ -13251,13 +12915,13 @@
         <v>2589</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>2590</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>2939</v>
+        <v>2252</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>1110</v>
@@ -13271,13 +12935,13 @@
         <v>2589</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>2590</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>2939</v>
+        <v>2252</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>1115</v>
@@ -13291,13 +12955,13 @@
         <v>2589</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>2590</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>2939</v>
+        <v>2252</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>1119</v>
@@ -13311,13 +12975,13 @@
         <v>2589</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>2590</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>2939</v>
+        <v>2252</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>1122</v>
@@ -13331,13 +12995,13 @@
         <v>2589</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>2599</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>2940</v>
+        <v>2253</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>1126</v>
@@ -13351,13 +13015,13 @@
         <v>2589</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2599</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>2940</v>
+        <v>2253</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>1129</v>
@@ -13371,13 +13035,13 @@
         <v>2589</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>2599</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>2940</v>
+        <v>2253</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>1132</v>
@@ -13391,13 +13055,13 @@
         <v>2589</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>2605</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>2941</v>
+        <v>2254</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>1136</v>
@@ -13411,13 +13075,13 @@
         <v>2589</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>2605</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>2941</v>
+        <v>2254</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>1138</v>
@@ -13431,13 +13095,13 @@
         <v>2589</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>2605</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>2941</v>
+        <v>2254</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>1140</v>
@@ -13451,13 +13115,13 @@
         <v>2589</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>2605</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>2941</v>
+        <v>2254</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>1144</v>
@@ -13471,13 +13135,13 @@
         <v>2589</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>2605</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>2941</v>
+        <v>2254</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>1150</v>
@@ -13491,13 +13155,13 @@
         <v>2589</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>2615</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>2942</v>
+        <v>1157</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>1156</v>
@@ -13511,13 +13175,13 @@
         <v>2589</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>2617</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>2943</v>
+        <v>2255</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>1158</v>
@@ -13531,13 +13195,13 @@
         <v>2589</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>2620</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>2944</v>
+        <v>2256</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>1166</v>
@@ -13551,13 +13215,13 @@
         <v>2589</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>2620</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>2944</v>
+        <v>2256</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>1168</v>
@@ -13571,13 +13235,13 @@
         <v>2589</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>2620</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>2944</v>
+        <v>2256</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>1170</v>
@@ -13591,13 +13255,13 @@
         <v>2589</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>2620</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>2944</v>
+        <v>2256</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>1172</v>
@@ -13611,13 +13275,13 @@
         <v>2589</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>2620</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>2944</v>
+        <v>2256</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>1174</v>
@@ -13631,13 +13295,13 @@
         <v>2589</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>2629</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>2945</v>
+        <v>2211</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>1182</v>
@@ -13651,13 +13315,13 @@
         <v>2589</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>2632</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>2946</v>
+        <v>2257</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>1184</v>
@@ -13671,13 +13335,13 @@
         <v>2589</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>2632</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>2946</v>
+        <v>2257</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>1186</v>
@@ -13691,13 +13355,13 @@
         <v>2589</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>2632</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>2946</v>
+        <v>2257</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>1188</v>
@@ -13711,13 +13375,13 @@
         <v>2589</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>2632</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>2946</v>
+        <v>2257</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>1192</v>
@@ -13731,7 +13395,7 @@
         <v>2589</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>2638</v>
@@ -13751,7 +13415,7 @@
         <v>2589</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>2645</v>
@@ -13771,13 +13435,13 @@
         <v>2589</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>2656</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>2976</v>
+        <v>2260</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>2261</v>
@@ -13791,13 +13455,13 @@
         <v>2589</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>2898</v>
+        <v>2251</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>2656</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>2976</v>
+        <v>2260</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>2262</v>
@@ -13811,13 +13475,13 @@
         <v>2661</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>2662</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>2975</v>
+        <v>2264</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>1236</v>
@@ -13831,13 +13495,13 @@
         <v>2661</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>2665</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>2974</v>
+        <v>2265</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>1238</v>
@@ -13851,13 +13515,13 @@
         <v>2661</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>2665</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>2974</v>
+        <v>2265</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>1240</v>
@@ -13871,13 +13535,13 @@
         <v>2661</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>2665</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>2974</v>
+        <v>2265</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>1242</v>
@@ -13891,13 +13555,13 @@
         <v>2661</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>2670</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>2973</v>
+        <v>2266</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>1244</v>
@@ -13911,13 +13575,13 @@
         <v>2661</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>2672</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>2972</v>
+        <v>2267</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>1248</v>
@@ -13931,13 +13595,13 @@
         <v>2661</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>2672</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>2972</v>
+        <v>2267</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>1254</v>
@@ -13951,13 +13615,13 @@
         <v>2661</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2672</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>2972</v>
+        <v>2267</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>1256</v>
@@ -13971,13 +13635,13 @@
         <v>2661</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>2679</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>2971</v>
+        <v>2268</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>1258</v>
@@ -13991,13 +13655,13 @@
         <v>2661</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>2679</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>2971</v>
+        <v>2268</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>1260</v>
@@ -14011,13 +13675,13 @@
         <v>2661</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>2970</v>
+        <v>2269</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>1268</v>
@@ -14031,13 +13695,13 @@
         <v>2661</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>2970</v>
+        <v>2269</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>1272</v>
@@ -14051,13 +13715,13 @@
         <v>2661</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>2687</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>2969</v>
+        <v>2270</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>1282</v>
@@ -14071,13 +13735,13 @@
         <v>2661</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>2687</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>2969</v>
+        <v>2270</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>1302</v>
@@ -14091,13 +13755,13 @@
         <v>2661</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>2693</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>2968</v>
+        <v>2271</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>1312</v>
@@ -14111,13 +13775,13 @@
         <v>2661</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>2693</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>2967</v>
+        <v>2271</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>1314</v>
@@ -14131,13 +13795,13 @@
         <v>2661</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>2700</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>2965</v>
+        <v>2272</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>1318</v>
@@ -14151,13 +13815,13 @@
         <v>2661</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>2700</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>2965</v>
+        <v>2272</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>1322</v>
@@ -14171,13 +13835,13 @@
         <v>2661</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>2700</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>2965</v>
+        <v>2272</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>1326</v>
@@ -14191,13 +13855,13 @@
         <v>2661</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>2700</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>2965</v>
+        <v>2272</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>1330</v>
@@ -14211,13 +13875,13 @@
         <v>2661</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>2700</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>2965</v>
+        <v>2272</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>1338</v>
@@ -14231,13 +13895,13 @@
         <v>2661</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>2713</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>2966</v>
+        <v>2273</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>1362</v>
@@ -14251,13 +13915,13 @@
         <v>2661</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>2713</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>2966</v>
+        <v>2273</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>1366</v>
@@ -14271,13 +13935,13 @@
         <v>2661</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>2977</v>
+        <v>2263</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>2713</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>2966</v>
+        <v>2273</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>1370</v>
@@ -14291,13 +13955,13 @@
         <v>2721</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>2722</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>2964</v>
+        <v>2276</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>2275</v>
@@ -14311,13 +13975,13 @@
         <v>2721</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>2963</v>
+        <v>2279</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>2278</v>
@@ -14331,13 +13995,13 @@
         <v>2721</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>2963</v>
+        <v>2279</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>1426</v>
@@ -14351,13 +14015,13 @@
         <v>2721</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>2963</v>
+        <v>2279</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>2281</v>
@@ -14371,13 +14035,13 @@
         <v>2721</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>2963</v>
+        <v>2279</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>1430</v>
@@ -14391,13 +14055,13 @@
         <v>2721</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>2963</v>
+        <v>2279</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>2283</v>
@@ -14411,13 +14075,13 @@
         <v>2721</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>2963</v>
+        <v>2279</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>2285</v>
@@ -14431,13 +14095,13 @@
         <v>2721</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>2963</v>
+        <v>2279</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>2287</v>
@@ -14451,13 +14115,13 @@
         <v>2721</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>2963</v>
+        <v>2279</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>2289</v>
@@ -14471,13 +14135,13 @@
         <v>2721</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>2963</v>
+        <v>2279</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>1474</v>
@@ -14491,13 +14155,13 @@
         <v>2721</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>2963</v>
+        <v>2279</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>1480</v>
@@ -14511,13 +14175,13 @@
         <v>2721</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>2963</v>
+        <v>2279</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>2291</v>
@@ -14531,13 +14195,13 @@
         <v>2721</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>2963</v>
+        <v>2279</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>2293</v>
@@ -14551,13 +14215,13 @@
         <v>2721</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>2963</v>
+        <v>2279</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>2295</v>
@@ -14571,13 +14235,13 @@
         <v>2721</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>2963</v>
+        <v>2279</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>2297</v>
@@ -14591,13 +14255,13 @@
         <v>2721</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>2963</v>
+        <v>2279</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>2299</v>
@@ -14611,13 +14275,13 @@
         <v>2721</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>2753</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>2962</v>
+        <v>2301</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>1666</v>
@@ -14631,13 +14295,13 @@
         <v>2721</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>2899</v>
+        <v>2274</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>2753</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>2962</v>
+        <v>2301</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>1670</v>
@@ -14651,7 +14315,7 @@
         <v>2757</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2758</v>
@@ -14671,7 +14335,7 @@
         <v>2757</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>2758</v>
@@ -14691,7 +14355,7 @@
         <v>2757</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>2758</v>
@@ -14711,7 +14375,7 @@
         <v>2757</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>2758</v>
@@ -14731,7 +14395,7 @@
         <v>2757</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>2758</v>
@@ -14751,7 +14415,7 @@
         <v>2757</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>2766</v>
@@ -14771,7 +14435,7 @@
         <v>2757</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>2766</v>
@@ -14791,7 +14455,7 @@
         <v>2757</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>2766</v>
@@ -14811,7 +14475,7 @@
         <v>2757</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>2766</v>
@@ -14831,7 +14495,7 @@
         <v>2757</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2766</v>
@@ -14851,7 +14515,7 @@
         <v>2757</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>2766</v>
@@ -14871,7 +14535,7 @@
         <v>2757</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>2766</v>
@@ -14891,7 +14555,7 @@
         <v>2757</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>2766</v>
@@ -14911,7 +14575,7 @@
         <v>2757</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>2766</v>
@@ -14931,7 +14595,7 @@
         <v>2757</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>2766</v>
@@ -14951,7 +14615,7 @@
         <v>2757</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>2766</v>
@@ -14971,7 +14635,7 @@
         <v>2757</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>2766</v>
@@ -14991,13 +14655,13 @@
         <v>2757</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>2900</v>
+        <v>2302</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>2773</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>2961</v>
+        <v>2304</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>1708</v>
@@ -15011,13 +14675,13 @@
         <v>2775</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>2776</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>2960</v>
+        <v>2306</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>1734</v>
@@ -15031,13 +14695,13 @@
         <v>2775</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>2951</v>
+        <v>2307</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>1779</v>
@@ -15051,13 +14715,13 @@
         <v>2775</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>2951</v>
+        <v>2307</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>1783</v>
@@ -15071,13 +14735,13 @@
         <v>2775</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>2951</v>
+        <v>2307</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>1787</v>
@@ -15091,13 +14755,13 @@
         <v>2775</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>2951</v>
+        <v>2307</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>1794</v>
@@ -15111,13 +14775,13 @@
         <v>2775</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>2951</v>
+        <v>2307</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>1797</v>
@@ -15131,13 +14795,13 @@
         <v>2775</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>2951</v>
+        <v>2307</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>1802</v>
@@ -15151,13 +14815,13 @@
         <v>2775</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>2951</v>
+        <v>2307</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>1808</v>
@@ -15171,13 +14835,13 @@
         <v>2775</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>2951</v>
+        <v>2307</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>1813</v>
@@ -15191,13 +14855,13 @@
         <v>2775</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>2951</v>
+        <v>2307</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>1816</v>
@@ -15211,13 +14875,13 @@
         <v>2775</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>2781</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>2951</v>
+        <v>2307</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>1878</v>
@@ -15231,13 +14895,13 @@
         <v>2775</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>2959</v>
+        <v>2308</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>1908</v>
@@ -15251,13 +14915,13 @@
         <v>2775</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>2959</v>
+        <v>2308</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>1922</v>
@@ -15271,13 +14935,13 @@
         <v>2775</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>2959</v>
+        <v>2308</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>1926</v>
@@ -15291,13 +14955,13 @@
         <v>2775</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>2959</v>
+        <v>2308</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>1930</v>
@@ -15311,13 +14975,13 @@
         <v>2775</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>2959</v>
+        <v>2308</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>1936</v>
@@ -15331,13 +14995,13 @@
         <v>2775</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>2959</v>
+        <v>2308</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>1939</v>
@@ -15351,13 +15015,13 @@
         <v>2775</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>2959</v>
+        <v>2308</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>1945</v>
@@ -15371,13 +15035,13 @@
         <v>2775</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>2959</v>
+        <v>2308</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>1949</v>
@@ -15391,13 +15055,13 @@
         <v>2775</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>2959</v>
+        <v>2308</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>1957</v>
@@ -15411,13 +15075,13 @@
         <v>2775</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>2901</v>
+        <v>2305</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>2797</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>2959</v>
+        <v>2308</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>1959</v>
@@ -15431,13 +15095,13 @@
         <v>2826</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>2827</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>2958</v>
+        <v>2310</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>1963</v>
@@ -15451,13 +15115,13 @@
         <v>2826</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>2832</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>2957</v>
+        <v>2311</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>1967</v>
@@ -15471,13 +15135,13 @@
         <v>2826</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>2834</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>2956</v>
+        <v>2312</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>1973</v>
@@ -15491,13 +15155,13 @@
         <v>2826</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>2834</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>2956</v>
+        <v>2312</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>1981</v>
@@ -15511,13 +15175,13 @@
         <v>2826</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>2842</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>2955</v>
+        <v>1988</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>1987</v>
@@ -15531,13 +15195,13 @@
         <v>2826</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>2844</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>2954</v>
+        <v>1992</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>1991</v>
@@ -15551,13 +15215,13 @@
         <v>2826</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>2847</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>2953</v>
+        <v>2313</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>2001</v>
@@ -15571,13 +15235,13 @@
         <v>2826</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>2847</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>2953</v>
+        <v>2313</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>2005</v>
@@ -15591,13 +15255,13 @@
         <v>2826</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>2847</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>2953</v>
+        <v>2313</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>2314</v>
@@ -15611,13 +15275,13 @@
         <v>2826</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>2847</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>2953</v>
+        <v>2313</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>2017</v>
@@ -15631,13 +15295,13 @@
         <v>2826</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>2856</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>2950</v>
+        <v>2316</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>2031</v>
@@ -15651,13 +15315,13 @@
         <v>2826</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>2856</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>2950</v>
+        <v>2316</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>2039</v>
@@ -15671,13 +15335,13 @@
         <v>2826</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2856</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>2950</v>
+        <v>2316</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>2043</v>
@@ -15691,13 +15355,13 @@
         <v>2826</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>2867</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>2949</v>
+        <v>2317</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>2047</v>
@@ -15711,13 +15375,13 @@
         <v>2826</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2867</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>2949</v>
+        <v>2317</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>2055</v>
@@ -15731,13 +15395,13 @@
         <v>2826</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2867</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>2949</v>
+        <v>2317</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>2065</v>
@@ -15751,13 +15415,13 @@
         <v>2826</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>2874</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>2948</v>
+        <v>2318</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>2073</v>
@@ -15771,13 +15435,13 @@
         <v>2826</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>2874</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>2948</v>
+        <v>2318</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>2083</v>
@@ -15791,13 +15455,13 @@
         <v>2826</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>2882</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>2947</v>
+        <v>2319</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>2087</v>
@@ -15811,13 +15475,13 @@
         <v>2826</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>2882</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>2947</v>
+        <v>2319</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>2091</v>
@@ -15831,13 +15495,13 @@
         <v>2826</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>2887</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>2952</v>
+        <v>2320</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>2095</v>
@@ -15851,13 +15515,13 @@
         <v>2826</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>2902</v>
+        <v>2309</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>2887</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>2952</v>
+        <v>2320</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>2105</v>
@@ -15872,7 +15536,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15899,18 +15562,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>2336</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22" t="s">
         <v>2337</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -40230,20 +39893,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>2892</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>2893</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -40258,22 +39921,22 @@
       <c r="D2" s="7" t="s">
         <v>2343</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="28" t="s">
         <v>2331</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="28" t="s">
         <v>2339</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="28" t="s">
         <v>2341</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="28" t="s">
         <v>2343</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="28" t="s">
         <v>2344</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="28" t="s">
         <v>2345</v>
       </c>
     </row>
